--- a/python/Test/1lab/semenLab1.xlsx
+++ b/python/Test/1lab/semenLab1.xlsx
@@ -1,25 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Du\Desktop\github\python\Test\1lab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DD6137-7A8E-4EA4-9F60-2E7F0E02FD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Входной параметр</t>
+  </si>
+  <si>
+    <t>Правильные классы</t>
+  </si>
+  <si>
+    <t>Неправильные классы</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b!=-1</t>
+  </si>
+  <si>
+    <t>b!=4</t>
+  </si>
+  <si>
+    <t>b=-1</t>
+  </si>
+  <si>
+    <t>b=4</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a=&gt;-10</t>
+  </si>
+  <si>
+    <t>a&lt;-10</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Покрытые классы</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +134,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +567,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="e" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">(SQRT(pow(B9, 3)+1000)/B10^2-3*B10-4)*SIN(B11)+COS(B11)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>